--- a/[Math]/data dT.xlsx
+++ b/[Math]/data dT.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chervinko_e\Desktop\esp32 synchronizer\[Hardware]\[Tests]\ESP_NOW test dT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\esp32_synchronizer\[Math]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1928C74-0969-453F-89CC-0C88759ABEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -324,6 +324,1386 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11602537182852143"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.83953018372703414"/>
+          <c:h val="0.70841097987751533"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="178"/>
+                <c:pt idx="0">
+                  <c:v>104594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91622</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101892</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101706</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100032</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102386</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97050</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98511</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100514</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98935</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99930</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>107987</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>101373</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97735</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104672</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100807</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96177</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>98680</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100312</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100986</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100140</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99704</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99898</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>101577</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99536</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>98620</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>120648</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>78994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>105855</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>94228</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>138882</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64769</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100056</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98317</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>116793</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81558</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>100035</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>101470</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>98668</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>100029</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100062</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100877</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>99236</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100104</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>101469</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>99361</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>99306</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>102531</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>99698</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>101445</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>100466</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>98267</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>99260</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>99076</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>104399</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>95406</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>104135</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>96545</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>99514</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>100065</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>100040</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>100858</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>99253</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>100082</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>100325</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>110557</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>90609</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>102163</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>99389</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>97958</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>99423</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>103071</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>97046</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>100069</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>104391</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>99800</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96942</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99835</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>99308</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>100573</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>99554</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>104606</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>109743</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>92499</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>93405</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>102391</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>97729</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>100129</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>100680</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>101044</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>98373</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>101987</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>98157</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>101673</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>98459</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>100054</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>100028</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>100513</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>99628</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>102334</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>99197</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>99820</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>99332</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>99917</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>99808</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>101534</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>99153</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>99454</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>102273</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>100622</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>97261</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>100606</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>100664</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>101348</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>97629</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>102268</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>97872</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>103042</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>97069</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>100132</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>100352</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>100596</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>104428</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>96167</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>100556</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>99826</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>99283</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>99761</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>99709</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>102010</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>98968</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>98974</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>100070</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>103314</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>96818</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>100998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>101081</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>98097</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>100071</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>100035</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>100087</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>100187</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>99920</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>100061</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>100856</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>99263</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>105745</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>104430</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>90053</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>102045</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>99346</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>101520</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>102561</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>96329</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>100897</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>99037</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>98695</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>101228</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>98911</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>103998</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>97150</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>99008</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>100067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E03B-4C72-B5BC-3426923D2C9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1302787679"/>
+        <c:axId val="1302788095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1302787679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302788095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1302788095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302787679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -586,11 +1966,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACT603"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:C603"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6647,11 +8027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E7CD8-44AB-449D-B9ED-C058686E820B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="US1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:WE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="VA12" sqref="VA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6670,2399 +8050,2399 @@
         <v>1</v>
       </c>
       <c r="E1" s="12">
-        <f>D1+1</f>
+        <f t="shared" ref="E1:BP1" si="0">D1+1</f>
         <v>2</v>
       </c>
       <c r="F1" s="12">
-        <f>E1+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G1" s="12">
-        <f>F1+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H1" s="12">
-        <f>G1+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I1" s="12">
-        <f>H1+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J1" s="12">
-        <f>I1+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K1" s="12">
-        <f>J1+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L1" s="12">
-        <f>K1+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M1" s="12">
-        <f>L1+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N1" s="12">
-        <f>M1+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="O1" s="12">
-        <f>N1+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="P1" s="12">
-        <f>O1+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="Q1" s="12">
-        <f>P1+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="R1" s="12">
-        <f>Q1+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="S1" s="12">
-        <f>R1+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="T1" s="12">
-        <f>S1+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="U1" s="12">
-        <f>T1+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="V1" s="12">
-        <f>U1+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="W1" s="12">
-        <f>V1+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="X1" s="12">
-        <f>W1+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="Y1" s="12">
-        <f>X1+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="Z1" s="12">
-        <f>Y1+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="AA1" s="12">
-        <f>Z1+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AB1" s="12">
-        <f>AA1+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="AC1" s="12">
-        <f>AB1+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="AD1" s="12">
-        <f>AC1+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="AE1" s="12">
-        <f>AD1+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="AF1" s="12">
-        <f>AE1+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="AG1" s="12">
-        <f>AF1+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AH1" s="12">
-        <f>AG1+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="AI1" s="12">
-        <f>AH1+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="AJ1" s="12">
-        <f>AI1+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="AK1" s="12">
-        <f>AJ1+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="AL1" s="12">
-        <f>AK1+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="AM1" s="12">
-        <f>AL1+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="AN1" s="12">
-        <f>AM1+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="AO1" s="12">
-        <f>AN1+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="AP1" s="12">
-        <f>AO1+1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="AQ1" s="12">
-        <f>AP1+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="AR1" s="12">
-        <f>AQ1+1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="AS1" s="12">
-        <f>AR1+1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="AT1" s="12">
-        <f>AS1+1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="AU1" s="12">
-        <f>AT1+1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="AV1" s="12">
-        <f>AU1+1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="AW1" s="12">
-        <f>AV1+1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="AX1" s="12">
-        <f>AW1+1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="AY1" s="12">
-        <f>AX1+1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AZ1" s="12">
-        <f>AY1+1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="BA1" s="12">
-        <f>AZ1+1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="BB1" s="12">
-        <f>BA1+1</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="BC1" s="12">
-        <f>BB1+1</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="BD1" s="12">
-        <f>BC1+1</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="BE1" s="12">
-        <f>BD1+1</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="BF1" s="12">
-        <f>BE1+1</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="BG1" s="12">
-        <f>BF1+1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="BH1" s="12">
-        <f>BG1+1</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="BI1" s="12">
-        <f>BH1+1</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="BJ1" s="12">
-        <f>BI1+1</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="BK1" s="12">
-        <f>BJ1+1</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="BL1" s="12">
-        <f>BK1+1</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="BM1" s="12">
-        <f>BL1+1</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="BN1" s="12">
-        <f>BM1+1</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="BO1" s="12">
-        <f>BN1+1</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="BP1" s="12">
-        <f>BO1+1</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="BQ1" s="12">
-        <f>BP1+1</f>
+        <f t="shared" ref="BQ1:EB1" si="1">BP1+1</f>
         <v>66</v>
       </c>
       <c r="BR1" s="12">
-        <f>BQ1+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="BS1" s="12">
-        <f>BR1+1</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="BT1" s="12">
-        <f>BS1+1</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="BU1" s="12">
-        <f>BT1+1</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="BV1" s="12">
-        <f>BU1+1</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="BW1" s="12">
-        <f>BV1+1</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BX1" s="12">
-        <f>BW1+1</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="BY1" s="12">
-        <f>BX1+1</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="BZ1" s="12">
-        <f>BY1+1</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="CA1" s="12">
-        <f>BZ1+1</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="CB1" s="12">
-        <f>CA1+1</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="CC1" s="12">
-        <f>CB1+1</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="CD1" s="12">
-        <f>CC1+1</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="CE1" s="12">
-        <f>CD1+1</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="CF1" s="12">
-        <f>CE1+1</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="CG1" s="12">
-        <f>CF1+1</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="CH1" s="12">
-        <f>CG1+1</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="CI1" s="12">
-        <f>CH1+1</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="CJ1" s="12">
-        <f>CI1+1</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="CK1" s="12">
-        <f>CJ1+1</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="CL1" s="12">
-        <f>CK1+1</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="CM1" s="12">
-        <f>CL1+1</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="CN1" s="12">
-        <f>CM1+1</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="CO1" s="12">
-        <f>CN1+1</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="CP1" s="12">
-        <f>CO1+1</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="CQ1" s="12">
-        <f>CP1+1</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="CR1" s="12">
-        <f>CQ1+1</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="CS1" s="12">
-        <f>CR1+1</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="CT1" s="12">
-        <f>CS1+1</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="CU1" s="12">
-        <f>CT1+1</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="CV1" s="12">
-        <f>CU1+1</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="CW1" s="12">
-        <f>CV1+1</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="CX1" s="12">
-        <f>CW1+1</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="CY1" s="12">
-        <f>CX1+1</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="CZ1" s="12">
-        <f>CY1+1</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="DA1" s="12">
-        <f>CZ1+1</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="DB1" s="12">
-        <f>DA1+1</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="DC1" s="12">
-        <f>DB1+1</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="DD1" s="12">
-        <f>DC1+1</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="DE1" s="12">
-        <f>DD1+1</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="DF1" s="12">
-        <f>DE1+1</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="DG1" s="12">
-        <f>DF1+1</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="DH1" s="12">
-        <f>DG1+1</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="DI1" s="12">
-        <f>DH1+1</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="DJ1" s="12">
-        <f>DI1+1</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="DK1" s="12">
-        <f>DJ1+1</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="DL1" s="12">
-        <f>DK1+1</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="DM1" s="12">
-        <f>DL1+1</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="DN1" s="12">
-        <f>DM1+1</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="DO1" s="12">
-        <f>DN1+1</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="DP1" s="12">
-        <f>DO1+1</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="DQ1" s="12">
-        <f>DP1+1</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="DR1" s="12">
-        <f>DQ1+1</f>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="DS1" s="12">
-        <f>DR1+1</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="DT1" s="12">
-        <f>DS1+1</f>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="DU1" s="12">
-        <f>DT1+1</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="DV1" s="12">
-        <f>DU1+1</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="DW1" s="12">
-        <f>DV1+1</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="DX1" s="12">
-        <f>DW1+1</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="DY1" s="12">
-        <f>DX1+1</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="DZ1" s="12">
-        <f>DY1+1</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="EA1" s="12">
-        <f>DZ1+1</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="EB1" s="12">
-        <f>EA1+1</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="EC1" s="12">
-        <f>EB1+1</f>
+        <f t="shared" ref="EC1:GN1" si="2">EB1+1</f>
         <v>130</v>
       </c>
       <c r="ED1" s="12">
-        <f>EC1+1</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="EE1" s="12">
-        <f>ED1+1</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="EF1" s="12">
-        <f>EE1+1</f>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="EG1" s="12">
-        <f>EF1+1</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="EH1" s="12">
-        <f>EG1+1</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="EI1" s="12">
-        <f>EH1+1</f>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="EJ1" s="12">
-        <f>EI1+1</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="EK1" s="12">
-        <f>EJ1+1</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="EL1" s="12">
-        <f>EK1+1</f>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="EM1" s="12">
-        <f>EL1+1</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="EN1" s="12">
-        <f>EM1+1</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="EO1" s="12">
-        <f>EN1+1</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="EP1" s="12">
-        <f>EO1+1</f>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="EQ1" s="12">
-        <f>EP1+1</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="ER1" s="12">
-        <f>EQ1+1</f>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="ES1" s="12">
-        <f>ER1+1</f>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="ET1" s="12">
-        <f>ES1+1</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="EU1" s="12">
-        <f>ET1+1</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="EV1" s="12">
-        <f>EU1+1</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="EW1" s="12">
-        <f>EV1+1</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="EX1" s="12">
-        <f>EW1+1</f>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="EY1" s="12">
-        <f>EX1+1</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="EZ1" s="12">
-        <f>EY1+1</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="FA1" s="12">
-        <f>EZ1+1</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="FB1" s="12">
-        <f>FA1+1</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="FC1" s="12">
-        <f>FB1+1</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="FD1" s="12">
-        <f>FC1+1</f>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="FE1" s="12">
-        <f>FD1+1</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="FF1" s="12">
-        <f>FE1+1</f>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="FG1" s="12">
-        <f>FF1+1</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="FH1" s="12">
-        <f>FG1+1</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="FI1" s="12">
-        <f>FH1+1</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="FJ1" s="12">
-        <f>FI1+1</f>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="FK1" s="12">
-        <f>FJ1+1</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="FL1" s="12">
-        <f>FK1+1</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="FM1" s="12">
-        <f>FL1+1</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="FN1" s="12">
-        <f>FM1+1</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="FO1" s="12">
-        <f>FN1+1</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="FP1" s="12">
-        <f>FO1+1</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="FQ1" s="12">
-        <f>FP1+1</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="FR1" s="12">
-        <f>FQ1+1</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="FS1" s="12">
-        <f>FR1+1</f>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="FT1" s="12">
-        <f>FS1+1</f>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="FU1" s="12">
-        <f>FT1+1</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="FV1" s="12">
-        <f>FU1+1</f>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="FW1" s="12">
-        <f>FV1+1</f>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="FX1" s="12">
-        <f>FW1+1</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="FY1" s="12">
-        <f>FX1+1</f>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="FZ1" s="12">
-        <f>FY1+1</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="GA1" s="12">
-        <f>FZ1+1</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="GB1" s="12">
-        <f>GA1+1</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="GC1" s="12">
-        <f>GB1+1</f>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="GD1" s="12">
-        <f>GC1+1</f>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="GE1" s="12">
-        <f>GD1+1</f>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="GF1" s="12">
-        <f>GE1+1</f>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="GG1" s="12">
-        <f>GF1+1</f>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="GH1" s="12">
-        <f>GG1+1</f>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="GI1" s="12">
-        <f>GH1+1</f>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="GJ1" s="12">
-        <f>GI1+1</f>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="GK1" s="12">
-        <f>GJ1+1</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="GL1" s="12">
-        <f>GK1+1</f>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="GM1" s="12">
-        <f>GL1+1</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="GN1" s="12">
-        <f>GM1+1</f>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="GO1" s="12">
-        <f>GN1+1</f>
+        <f t="shared" ref="GO1:IZ1" si="3">GN1+1</f>
         <v>194</v>
       </c>
       <c r="GP1" s="12">
-        <f>GO1+1</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="GQ1" s="12">
-        <f>GP1+1</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="GR1" s="12">
-        <f>GQ1+1</f>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="GS1" s="12">
-        <f>GR1+1</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="GT1" s="12">
-        <f>GS1+1</f>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="GU1" s="12">
-        <f>GT1+1</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="GV1" s="12">
-        <f>GU1+1</f>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="GW1" s="12">
-        <f>GV1+1</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="GX1" s="12">
-        <f>GW1+1</f>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="GY1" s="12">
-        <f>GX1+1</f>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="GZ1" s="12">
-        <f>GY1+1</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="HA1" s="12">
-        <f>GZ1+1</f>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="HB1" s="12">
-        <f>HA1+1</f>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="HC1" s="12">
-        <f>HB1+1</f>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="HD1" s="12">
-        <f>HC1+1</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="HE1" s="12">
-        <f>HD1+1</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="HF1" s="12">
-        <f>HE1+1</f>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="HG1" s="12">
-        <f>HF1+1</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="HH1" s="12">
-        <f>HG1+1</f>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="HI1" s="12">
-        <f>HH1+1</f>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="HJ1" s="12">
-        <f>HI1+1</f>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="HK1" s="12">
-        <f>HJ1+1</f>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="HL1" s="12">
-        <f>HK1+1</f>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="HM1" s="12">
-        <f>HL1+1</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="HN1" s="12">
-        <f>HM1+1</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="HO1" s="12">
-        <f>HN1+1</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="HP1" s="12">
-        <f>HO1+1</f>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="HQ1" s="12">
-        <f>HP1+1</f>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="HR1" s="12">
-        <f>HQ1+1</f>
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="HS1" s="12">
-        <f>HR1+1</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="HT1" s="12">
-        <f>HS1+1</f>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="HU1" s="12">
-        <f>HT1+1</f>
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="HV1" s="12">
-        <f>HU1+1</f>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="HW1" s="12">
-        <f>HV1+1</f>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="HX1" s="12">
-        <f>HW1+1</f>
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="HY1" s="12">
-        <f>HX1+1</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="HZ1" s="12">
-        <f>HY1+1</f>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="IA1" s="12">
-        <f>HZ1+1</f>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="IB1" s="12">
-        <f>IA1+1</f>
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="IC1" s="12">
-        <f>IB1+1</f>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="ID1" s="12">
-        <f>IC1+1</f>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="IE1" s="12">
-        <f>ID1+1</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="IF1" s="12">
-        <f>IE1+1</f>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="IG1" s="12">
-        <f>IF1+1</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="IH1" s="12">
-        <f>IG1+1</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="II1" s="12">
-        <f>IH1+1</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="IJ1" s="12">
-        <f>II1+1</f>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="IK1" s="12">
-        <f>IJ1+1</f>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="IL1" s="12">
-        <f>IK1+1</f>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="IM1" s="12">
-        <f>IL1+1</f>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="IN1" s="12">
-        <f>IM1+1</f>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="IO1" s="12">
-        <f>IN1+1</f>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="IP1" s="12">
-        <f>IO1+1</f>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="IQ1" s="12">
-        <f>IP1+1</f>
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="IR1" s="12">
-        <f>IQ1+1</f>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="IS1" s="12">
-        <f>IR1+1</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="IT1" s="12">
-        <f>IS1+1</f>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="IU1" s="12">
-        <f>IT1+1</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="IV1" s="12">
-        <f>IU1+1</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="IW1" s="12">
-        <f>IV1+1</f>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="IX1" s="12">
-        <f>IW1+1</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="IY1" s="12">
-        <f>IX1+1</f>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="IZ1" s="12">
-        <f>IY1+1</f>
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="JA1" s="12">
-        <f>IZ1+1</f>
+        <f t="shared" ref="JA1:LL1" si="4">IZ1+1</f>
         <v>258</v>
       </c>
       <c r="JB1" s="12">
-        <f>JA1+1</f>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
       <c r="JC1" s="12">
-        <f>JB1+1</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="JD1" s="12">
-        <f>JC1+1</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="JE1" s="12">
-        <f>JD1+1</f>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="JF1" s="12">
-        <f>JE1+1</f>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="JG1" s="12">
-        <f>JF1+1</f>
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="JH1" s="12">
-        <f>JG1+1</f>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="JI1" s="12">
-        <f>JH1+1</f>
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="JJ1" s="12">
-        <f>JI1+1</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="JK1" s="12">
-        <f>JJ1+1</f>
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="JL1" s="12">
-        <f>JK1+1</f>
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="JM1" s="12">
-        <f>JL1+1</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="JN1" s="12">
-        <f>JM1+1</f>
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="JO1" s="12">
-        <f>JN1+1</f>
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="JP1" s="12">
-        <f>JO1+1</f>
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="JQ1" s="12">
-        <f>JP1+1</f>
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="JR1" s="12">
-        <f>JQ1+1</f>
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="JS1" s="12">
-        <f>JR1+1</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="JT1" s="12">
-        <f>JS1+1</f>
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="JU1" s="12">
-        <f>JT1+1</f>
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="JV1" s="12">
-        <f>JU1+1</f>
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="JW1" s="12">
-        <f>JV1+1</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="JX1" s="12">
-        <f>JW1+1</f>
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="JY1" s="12">
-        <f>JX1+1</f>
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="JZ1" s="12">
-        <f>JY1+1</f>
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="KA1" s="12">
-        <f>JZ1+1</f>
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="KB1" s="12">
-        <f>KA1+1</f>
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="KC1" s="12">
-        <f>KB1+1</f>
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
       <c r="KD1" s="12">
-        <f>KC1+1</f>
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="KE1" s="12">
-        <f>KD1+1</f>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="KF1" s="12">
-        <f>KE1+1</f>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="KG1" s="12">
-        <f>KF1+1</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="KH1" s="12">
-        <f>KG1+1</f>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="KI1" s="12">
-        <f>KH1+1</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="KJ1" s="12">
-        <f>KI1+1</f>
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="KK1" s="12">
-        <f>KJ1+1</f>
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
       <c r="KL1" s="12">
-        <f>KK1+1</f>
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="KM1" s="12">
-        <f>KL1+1</f>
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
       <c r="KN1" s="12">
-        <f>KM1+1</f>
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="KO1" s="12">
-        <f>KN1+1</f>
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="KP1" s="12">
-        <f>KO1+1</f>
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="KQ1" s="12">
-        <f>KP1+1</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="KR1" s="12">
-        <f>KQ1+1</f>
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="KS1" s="12">
-        <f>KR1+1</f>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="KT1" s="12">
-        <f>KS1+1</f>
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="KU1" s="12">
-        <f>KT1+1</f>
+        <f t="shared" si="4"/>
         <v>304</v>
       </c>
       <c r="KV1" s="12">
-        <f>KU1+1</f>
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="KW1" s="12">
-        <f>KV1+1</f>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="KX1" s="12">
-        <f>KW1+1</f>
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="KY1" s="12">
-        <f>KX1+1</f>
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="KZ1" s="12">
-        <f>KY1+1</f>
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="LA1" s="12">
-        <f>KZ1+1</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="LB1" s="12">
-        <f>LA1+1</f>
+        <f t="shared" si="4"/>
         <v>311</v>
       </c>
       <c r="LC1" s="12">
-        <f>LB1+1</f>
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="LD1" s="12">
-        <f>LC1+1</f>
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="LE1" s="12">
-        <f>LD1+1</f>
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="LF1" s="12">
-        <f>LE1+1</f>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="LG1" s="12">
-        <f>LF1+1</f>
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
       <c r="LH1" s="12">
-        <f>LG1+1</f>
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="LI1" s="12">
-        <f>LH1+1</f>
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
       <c r="LJ1" s="12">
-        <f>LI1+1</f>
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="LK1" s="12">
-        <f>LJ1+1</f>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="LL1" s="12">
-        <f>LK1+1</f>
+        <f t="shared" si="4"/>
         <v>321</v>
       </c>
       <c r="LM1" s="12">
-        <f>LL1+1</f>
+        <f t="shared" ref="LM1:NX1" si="5">LL1+1</f>
         <v>322</v>
       </c>
       <c r="LN1" s="12">
-        <f>LM1+1</f>
+        <f t="shared" si="5"/>
         <v>323</v>
       </c>
       <c r="LO1" s="12">
-        <f>LN1+1</f>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="LP1" s="12">
-        <f>LO1+1</f>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="LQ1" s="12">
-        <f>LP1+1</f>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="LR1" s="12">
-        <f>LQ1+1</f>
+        <f t="shared" si="5"/>
         <v>327</v>
       </c>
       <c r="LS1" s="12">
-        <f>LR1+1</f>
+        <f t="shared" si="5"/>
         <v>328</v>
       </c>
       <c r="LT1" s="12">
-        <f>LS1+1</f>
+        <f t="shared" si="5"/>
         <v>329</v>
       </c>
       <c r="LU1" s="12">
-        <f>LT1+1</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="LV1" s="12">
-        <f>LU1+1</f>
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
       <c r="LW1" s="12">
-        <f>LV1+1</f>
+        <f t="shared" si="5"/>
         <v>332</v>
       </c>
       <c r="LX1" s="12">
-        <f>LW1+1</f>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="LY1" s="12">
-        <f>LX1+1</f>
+        <f t="shared" si="5"/>
         <v>334</v>
       </c>
       <c r="LZ1" s="12">
-        <f>LY1+1</f>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="MA1" s="12">
-        <f>LZ1+1</f>
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
       <c r="MB1" s="12">
-        <f>MA1+1</f>
+        <f t="shared" si="5"/>
         <v>337</v>
       </c>
       <c r="MC1" s="12">
-        <f>MB1+1</f>
+        <f t="shared" si="5"/>
         <v>338</v>
       </c>
       <c r="MD1" s="12">
-        <f>MC1+1</f>
+        <f t="shared" si="5"/>
         <v>339</v>
       </c>
       <c r="ME1" s="12">
-        <f>MD1+1</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="MF1" s="12">
-        <f>ME1+1</f>
+        <f t="shared" si="5"/>
         <v>341</v>
       </c>
       <c r="MG1" s="12">
-        <f>MF1+1</f>
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="MH1" s="12">
-        <f>MG1+1</f>
+        <f t="shared" si="5"/>
         <v>343</v>
       </c>
       <c r="MI1" s="12">
-        <f>MH1+1</f>
+        <f t="shared" si="5"/>
         <v>344</v>
       </c>
       <c r="MJ1" s="12">
-        <f>MI1+1</f>
+        <f t="shared" si="5"/>
         <v>345</v>
       </c>
       <c r="MK1" s="12">
-        <f>MJ1+1</f>
+        <f t="shared" si="5"/>
         <v>346</v>
       </c>
       <c r="ML1" s="12">
-        <f>MK1+1</f>
+        <f t="shared" si="5"/>
         <v>347</v>
       </c>
       <c r="MM1" s="12">
-        <f>ML1+1</f>
+        <f t="shared" si="5"/>
         <v>348</v>
       </c>
       <c r="MN1" s="12">
-        <f>MM1+1</f>
+        <f t="shared" si="5"/>
         <v>349</v>
       </c>
       <c r="MO1" s="12">
-        <f>MN1+1</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="MP1" s="12">
-        <f>MO1+1</f>
+        <f t="shared" si="5"/>
         <v>351</v>
       </c>
       <c r="MQ1" s="12">
-        <f>MP1+1</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="MR1" s="12">
-        <f>MQ1+1</f>
+        <f t="shared" si="5"/>
         <v>353</v>
       </c>
       <c r="MS1" s="12">
-        <f>MR1+1</f>
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
       <c r="MT1" s="12">
-        <f>MS1+1</f>
+        <f t="shared" si="5"/>
         <v>355</v>
       </c>
       <c r="MU1" s="12">
-        <f>MT1+1</f>
+        <f t="shared" si="5"/>
         <v>356</v>
       </c>
       <c r="MV1" s="12">
-        <f>MU1+1</f>
+        <f t="shared" si="5"/>
         <v>357</v>
       </c>
       <c r="MW1" s="12">
-        <f>MV1+1</f>
+        <f t="shared" si="5"/>
         <v>358</v>
       </c>
       <c r="MX1" s="12">
-        <f>MW1+1</f>
+        <f t="shared" si="5"/>
         <v>359</v>
       </c>
       <c r="MY1" s="12">
-        <f>MX1+1</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="MZ1" s="12">
-        <f>MY1+1</f>
+        <f t="shared" si="5"/>
         <v>361</v>
       </c>
       <c r="NA1" s="12">
-        <f>MZ1+1</f>
+        <f t="shared" si="5"/>
         <v>362</v>
       </c>
       <c r="NB1" s="12">
-        <f>NA1+1</f>
+        <f t="shared" si="5"/>
         <v>363</v>
       </c>
       <c r="NC1" s="12">
-        <f>NB1+1</f>
+        <f t="shared" si="5"/>
         <v>364</v>
       </c>
       <c r="ND1" s="12">
-        <f>NC1+1</f>
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
       <c r="NE1" s="12">
-        <f>ND1+1</f>
+        <f t="shared" si="5"/>
         <v>366</v>
       </c>
       <c r="NF1" s="12">
-        <f>NE1+1</f>
+        <f t="shared" si="5"/>
         <v>367</v>
       </c>
       <c r="NG1" s="12">
-        <f>NF1+1</f>
+        <f t="shared" si="5"/>
         <v>368</v>
       </c>
       <c r="NH1" s="12">
-        <f>NG1+1</f>
+        <f t="shared" si="5"/>
         <v>369</v>
       </c>
       <c r="NI1" s="12">
-        <f>NH1+1</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="NJ1" s="12">
-        <f>NI1+1</f>
+        <f t="shared" si="5"/>
         <v>371</v>
       </c>
       <c r="NK1" s="12">
-        <f>NJ1+1</f>
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
       <c r="NL1" s="12">
-        <f>NK1+1</f>
+        <f t="shared" si="5"/>
         <v>373</v>
       </c>
       <c r="NM1" s="12">
-        <f>NL1+1</f>
+        <f t="shared" si="5"/>
         <v>374</v>
       </c>
       <c r="NN1" s="12">
-        <f>NM1+1</f>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="NO1" s="12">
-        <f>NN1+1</f>
+        <f t="shared" si="5"/>
         <v>376</v>
       </c>
       <c r="NP1" s="12">
-        <f>NO1+1</f>
+        <f t="shared" si="5"/>
         <v>377</v>
       </c>
       <c r="NQ1" s="12">
-        <f>NP1+1</f>
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
       <c r="NR1" s="12">
-        <f>NQ1+1</f>
+        <f t="shared" si="5"/>
         <v>379</v>
       </c>
       <c r="NS1" s="12">
-        <f>NR1+1</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="NT1" s="12">
-        <f>NS1+1</f>
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
       <c r="NU1" s="12">
-        <f>NT1+1</f>
+        <f t="shared" si="5"/>
         <v>382</v>
       </c>
       <c r="NV1" s="12">
-        <f>NU1+1</f>
+        <f t="shared" si="5"/>
         <v>383</v>
       </c>
       <c r="NW1" s="12">
-        <f>NV1+1</f>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="NX1" s="12">
-        <f>NW1+1</f>
+        <f t="shared" si="5"/>
         <v>385</v>
       </c>
       <c r="NY1" s="12">
-        <f>NX1+1</f>
+        <f t="shared" ref="NY1:QJ1" si="6">NX1+1</f>
         <v>386</v>
       </c>
       <c r="NZ1" s="12">
-        <f>NY1+1</f>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
       <c r="OA1" s="12">
-        <f>NZ1+1</f>
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
       <c r="OB1" s="12">
-        <f>OA1+1</f>
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
       <c r="OC1" s="12">
-        <f>OB1+1</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="OD1" s="12">
-        <f>OC1+1</f>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="OE1" s="12">
-        <f>OD1+1</f>
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
       <c r="OF1" s="12">
-        <f>OE1+1</f>
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
       <c r="OG1" s="12">
-        <f>OF1+1</f>
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
       <c r="OH1" s="12">
-        <f>OG1+1</f>
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
       <c r="OI1" s="12">
-        <f>OH1+1</f>
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
       <c r="OJ1" s="12">
-        <f>OI1+1</f>
+        <f t="shared" si="6"/>
         <v>397</v>
       </c>
       <c r="OK1" s="12">
-        <f>OJ1+1</f>
+        <f t="shared" si="6"/>
         <v>398</v>
       </c>
       <c r="OL1" s="12">
-        <f>OK1+1</f>
+        <f t="shared" si="6"/>
         <v>399</v>
       </c>
       <c r="OM1" s="12">
-        <f>OL1+1</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="ON1" s="12">
-        <f>OM1+1</f>
+        <f t="shared" si="6"/>
         <v>401</v>
       </c>
       <c r="OO1" s="12">
-        <f>ON1+1</f>
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
       <c r="OP1" s="12">
-        <f>OO1+1</f>
+        <f t="shared" si="6"/>
         <v>403</v>
       </c>
       <c r="OQ1" s="12">
-        <f>OP1+1</f>
+        <f t="shared" si="6"/>
         <v>404</v>
       </c>
       <c r="OR1" s="12">
-        <f>OQ1+1</f>
+        <f t="shared" si="6"/>
         <v>405</v>
       </c>
       <c r="OS1" s="12">
-        <f>OR1+1</f>
+        <f t="shared" si="6"/>
         <v>406</v>
       </c>
       <c r="OT1" s="12">
-        <f>OS1+1</f>
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
       <c r="OU1" s="12">
-        <f>OT1+1</f>
+        <f t="shared" si="6"/>
         <v>408</v>
       </c>
       <c r="OV1" s="12">
-        <f>OU1+1</f>
+        <f t="shared" si="6"/>
         <v>409</v>
       </c>
       <c r="OW1" s="12">
-        <f>OV1+1</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="OX1" s="12">
-        <f>OW1+1</f>
+        <f t="shared" si="6"/>
         <v>411</v>
       </c>
       <c r="OY1" s="12">
-        <f>OX1+1</f>
+        <f t="shared" si="6"/>
         <v>412</v>
       </c>
       <c r="OZ1" s="12">
-        <f>OY1+1</f>
+        <f t="shared" si="6"/>
         <v>413</v>
       </c>
       <c r="PA1" s="12">
-        <f>OZ1+1</f>
+        <f t="shared" si="6"/>
         <v>414</v>
       </c>
       <c r="PB1" s="12">
-        <f>PA1+1</f>
+        <f t="shared" si="6"/>
         <v>415</v>
       </c>
       <c r="PC1" s="12">
-        <f>PB1+1</f>
+        <f t="shared" si="6"/>
         <v>416</v>
       </c>
       <c r="PD1" s="12">
-        <f>PC1+1</f>
+        <f t="shared" si="6"/>
         <v>417</v>
       </c>
       <c r="PE1" s="12">
-        <f>PD1+1</f>
+        <f t="shared" si="6"/>
         <v>418</v>
       </c>
       <c r="PF1" s="12">
-        <f>PE1+1</f>
+        <f t="shared" si="6"/>
         <v>419</v>
       </c>
       <c r="PG1" s="12">
-        <f>PF1+1</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="PH1" s="12">
-        <f>PG1+1</f>
+        <f t="shared" si="6"/>
         <v>421</v>
       </c>
       <c r="PI1" s="12">
-        <f>PH1+1</f>
+        <f t="shared" si="6"/>
         <v>422</v>
       </c>
       <c r="PJ1" s="12">
-        <f>PI1+1</f>
+        <f t="shared" si="6"/>
         <v>423</v>
       </c>
       <c r="PK1" s="12">
-        <f>PJ1+1</f>
+        <f t="shared" si="6"/>
         <v>424</v>
       </c>
       <c r="PL1" s="12">
-        <f>PK1+1</f>
+        <f t="shared" si="6"/>
         <v>425</v>
       </c>
       <c r="PM1" s="12">
-        <f>PL1+1</f>
+        <f t="shared" si="6"/>
         <v>426</v>
       </c>
       <c r="PN1" s="12">
-        <f>PM1+1</f>
+        <f t="shared" si="6"/>
         <v>427</v>
       </c>
       <c r="PO1" s="12">
-        <f>PN1+1</f>
+        <f t="shared" si="6"/>
         <v>428</v>
       </c>
       <c r="PP1" s="12">
-        <f>PO1+1</f>
+        <f t="shared" si="6"/>
         <v>429</v>
       </c>
       <c r="PQ1" s="12">
-        <f>PP1+1</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="PR1" s="12">
-        <f>PQ1+1</f>
+        <f t="shared" si="6"/>
         <v>431</v>
       </c>
       <c r="PS1" s="12">
-        <f>PR1+1</f>
+        <f t="shared" si="6"/>
         <v>432</v>
       </c>
       <c r="PT1" s="12">
-        <f>PS1+1</f>
+        <f t="shared" si="6"/>
         <v>433</v>
       </c>
       <c r="PU1" s="12">
-        <f>PT1+1</f>
+        <f t="shared" si="6"/>
         <v>434</v>
       </c>
       <c r="PV1" s="12">
-        <f>PU1+1</f>
+        <f t="shared" si="6"/>
         <v>435</v>
       </c>
       <c r="PW1" s="12">
-        <f>PV1+1</f>
+        <f t="shared" si="6"/>
         <v>436</v>
       </c>
       <c r="PX1" s="12">
-        <f>PW1+1</f>
+        <f t="shared" si="6"/>
         <v>437</v>
       </c>
       <c r="PY1" s="12">
-        <f>PX1+1</f>
+        <f t="shared" si="6"/>
         <v>438</v>
       </c>
       <c r="PZ1" s="12">
-        <f>PY1+1</f>
+        <f t="shared" si="6"/>
         <v>439</v>
       </c>
       <c r="QA1" s="12">
-        <f>PZ1+1</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="QB1" s="12">
-        <f>QA1+1</f>
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
       <c r="QC1" s="12">
-        <f>QB1+1</f>
+        <f t="shared" si="6"/>
         <v>442</v>
       </c>
       <c r="QD1" s="12">
-        <f>QC1+1</f>
+        <f t="shared" si="6"/>
         <v>443</v>
       </c>
       <c r="QE1" s="12">
-        <f>QD1+1</f>
+        <f t="shared" si="6"/>
         <v>444</v>
       </c>
       <c r="QF1" s="12">
-        <f>QE1+1</f>
+        <f t="shared" si="6"/>
         <v>445</v>
       </c>
       <c r="QG1" s="12">
-        <f>QF1+1</f>
+        <f t="shared" si="6"/>
         <v>446</v>
       </c>
       <c r="QH1" s="12">
-        <f>QG1+1</f>
+        <f t="shared" si="6"/>
         <v>447</v>
       </c>
       <c r="QI1" s="12">
-        <f>QH1+1</f>
+        <f t="shared" si="6"/>
         <v>448</v>
       </c>
       <c r="QJ1" s="12">
-        <f>QI1+1</f>
+        <f t="shared" si="6"/>
         <v>449</v>
       </c>
       <c r="QK1" s="12">
-        <f>QJ1+1</f>
+        <f t="shared" ref="QK1:SV1" si="7">QJ1+1</f>
         <v>450</v>
       </c>
       <c r="QL1" s="12">
-        <f>QK1+1</f>
+        <f t="shared" si="7"/>
         <v>451</v>
       </c>
       <c r="QM1" s="12">
-        <f>QL1+1</f>
+        <f t="shared" si="7"/>
         <v>452</v>
       </c>
       <c r="QN1" s="12">
-        <f>QM1+1</f>
+        <f t="shared" si="7"/>
         <v>453</v>
       </c>
       <c r="QO1" s="12">
-        <f>QN1+1</f>
+        <f t="shared" si="7"/>
         <v>454</v>
       </c>
       <c r="QP1" s="12">
-        <f>QO1+1</f>
+        <f t="shared" si="7"/>
         <v>455</v>
       </c>
       <c r="QQ1" s="12">
-        <f>QP1+1</f>
+        <f t="shared" si="7"/>
         <v>456</v>
       </c>
       <c r="QR1" s="12">
-        <f>QQ1+1</f>
+        <f t="shared" si="7"/>
         <v>457</v>
       </c>
       <c r="QS1" s="12">
-        <f>QR1+1</f>
+        <f t="shared" si="7"/>
         <v>458</v>
       </c>
       <c r="QT1" s="12">
-        <f>QS1+1</f>
+        <f t="shared" si="7"/>
         <v>459</v>
       </c>
       <c r="QU1" s="12">
-        <f>QT1+1</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
       <c r="QV1" s="12">
-        <f>QU1+1</f>
+        <f t="shared" si="7"/>
         <v>461</v>
       </c>
       <c r="QW1" s="12">
-        <f>QV1+1</f>
+        <f t="shared" si="7"/>
         <v>462</v>
       </c>
       <c r="QX1" s="12">
-        <f>QW1+1</f>
+        <f t="shared" si="7"/>
         <v>463</v>
       </c>
       <c r="QY1" s="12">
-        <f>QX1+1</f>
+        <f t="shared" si="7"/>
         <v>464</v>
       </c>
       <c r="QZ1" s="12">
-        <f>QY1+1</f>
+        <f t="shared" si="7"/>
         <v>465</v>
       </c>
       <c r="RA1" s="12">
-        <f>QZ1+1</f>
+        <f t="shared" si="7"/>
         <v>466</v>
       </c>
       <c r="RB1" s="12">
-        <f>RA1+1</f>
+        <f t="shared" si="7"/>
         <v>467</v>
       </c>
       <c r="RC1" s="12">
-        <f>RB1+1</f>
+        <f t="shared" si="7"/>
         <v>468</v>
       </c>
       <c r="RD1" s="12">
-        <f>RC1+1</f>
+        <f t="shared" si="7"/>
         <v>469</v>
       </c>
       <c r="RE1" s="12">
-        <f>RD1+1</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="RF1" s="12">
-        <f>RE1+1</f>
+        <f t="shared" si="7"/>
         <v>471</v>
       </c>
       <c r="RG1" s="12">
-        <f>RF1+1</f>
+        <f t="shared" si="7"/>
         <v>472</v>
       </c>
       <c r="RH1" s="12">
-        <f>RG1+1</f>
+        <f t="shared" si="7"/>
         <v>473</v>
       </c>
       <c r="RI1" s="12">
-        <f>RH1+1</f>
+        <f t="shared" si="7"/>
         <v>474</v>
       </c>
       <c r="RJ1" s="12">
-        <f>RI1+1</f>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
       <c r="RK1" s="12">
-        <f>RJ1+1</f>
+        <f t="shared" si="7"/>
         <v>476</v>
       </c>
       <c r="RL1" s="12">
-        <f>RK1+1</f>
+        <f t="shared" si="7"/>
         <v>477</v>
       </c>
       <c r="RM1" s="12">
-        <f>RL1+1</f>
+        <f t="shared" si="7"/>
         <v>478</v>
       </c>
       <c r="RN1" s="12">
-        <f>RM1+1</f>
+        <f t="shared" si="7"/>
         <v>479</v>
       </c>
       <c r="RO1" s="12">
-        <f>RN1+1</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="RP1" s="12">
-        <f>RO1+1</f>
+        <f t="shared" si="7"/>
         <v>481</v>
       </c>
       <c r="RQ1" s="12">
-        <f>RP1+1</f>
+        <f t="shared" si="7"/>
         <v>482</v>
       </c>
       <c r="RR1" s="12">
-        <f>RQ1+1</f>
+        <f t="shared" si="7"/>
         <v>483</v>
       </c>
       <c r="RS1" s="12">
-        <f>RR1+1</f>
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
       <c r="RT1" s="12">
-        <f>RS1+1</f>
+        <f t="shared" si="7"/>
         <v>485</v>
       </c>
       <c r="RU1" s="12">
-        <f>RT1+1</f>
+        <f t="shared" si="7"/>
         <v>486</v>
       </c>
       <c r="RV1" s="12">
-        <f>RU1+1</f>
+        <f t="shared" si="7"/>
         <v>487</v>
       </c>
       <c r="RW1" s="12">
-        <f>RV1+1</f>
+        <f t="shared" si="7"/>
         <v>488</v>
       </c>
       <c r="RX1" s="12">
-        <f>RW1+1</f>
+        <f t="shared" si="7"/>
         <v>489</v>
       </c>
       <c r="RY1" s="12">
-        <f>RX1+1</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
       <c r="RZ1" s="12">
-        <f>RY1+1</f>
+        <f t="shared" si="7"/>
         <v>491</v>
       </c>
       <c r="SA1" s="12">
-        <f>RZ1+1</f>
+        <f t="shared" si="7"/>
         <v>492</v>
       </c>
       <c r="SB1" s="12">
-        <f>SA1+1</f>
+        <f t="shared" si="7"/>
         <v>493</v>
       </c>
       <c r="SC1" s="12">
-        <f>SB1+1</f>
+        <f t="shared" si="7"/>
         <v>494</v>
       </c>
       <c r="SD1" s="12">
-        <f>SC1+1</f>
+        <f t="shared" si="7"/>
         <v>495</v>
       </c>
       <c r="SE1" s="12">
-        <f>SD1+1</f>
+        <f t="shared" si="7"/>
         <v>496</v>
       </c>
       <c r="SF1" s="12">
-        <f>SE1+1</f>
+        <f t="shared" si="7"/>
         <v>497</v>
       </c>
       <c r="SG1" s="12">
-        <f>SF1+1</f>
+        <f t="shared" si="7"/>
         <v>498</v>
       </c>
       <c r="SH1" s="12">
-        <f>SG1+1</f>
+        <f t="shared" si="7"/>
         <v>499</v>
       </c>
       <c r="SI1" s="12">
-        <f>SH1+1</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="SJ1" s="12">
-        <f>SI1+1</f>
+        <f t="shared" si="7"/>
         <v>501</v>
       </c>
       <c r="SK1" s="12">
-        <f>SJ1+1</f>
+        <f t="shared" si="7"/>
         <v>502</v>
       </c>
       <c r="SL1" s="12">
-        <f>SK1+1</f>
+        <f t="shared" si="7"/>
         <v>503</v>
       </c>
       <c r="SM1" s="12">
-        <f>SL1+1</f>
+        <f t="shared" si="7"/>
         <v>504</v>
       </c>
       <c r="SN1" s="12">
-        <f>SM1+1</f>
+        <f t="shared" si="7"/>
         <v>505</v>
       </c>
       <c r="SO1" s="12">
-        <f>SN1+1</f>
+        <f t="shared" si="7"/>
         <v>506</v>
       </c>
       <c r="SP1" s="12">
-        <f>SO1+1</f>
+        <f t="shared" si="7"/>
         <v>507</v>
       </c>
       <c r="SQ1" s="12">
-        <f>SP1+1</f>
+        <f t="shared" si="7"/>
         <v>508</v>
       </c>
       <c r="SR1" s="12">
-        <f>SQ1+1</f>
+        <f t="shared" si="7"/>
         <v>509</v>
       </c>
       <c r="SS1" s="12">
-        <f>SR1+1</f>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="ST1" s="12">
-        <f>SS1+1</f>
+        <f t="shared" si="7"/>
         <v>511</v>
       </c>
       <c r="SU1" s="12">
-        <f>ST1+1</f>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
       <c r="SV1" s="12">
-        <f>SU1+1</f>
+        <f t="shared" si="7"/>
         <v>513</v>
       </c>
       <c r="SW1" s="12">
-        <f>SV1+1</f>
+        <f t="shared" ref="SW1:VH1" si="8">SV1+1</f>
         <v>514</v>
       </c>
       <c r="SX1" s="12">
-        <f>SW1+1</f>
+        <f t="shared" si="8"/>
         <v>515</v>
       </c>
       <c r="SY1" s="12">
-        <f>SX1+1</f>
+        <f t="shared" si="8"/>
         <v>516</v>
       </c>
       <c r="SZ1" s="12">
-        <f>SY1+1</f>
+        <f t="shared" si="8"/>
         <v>517</v>
       </c>
       <c r="TA1" s="12">
-        <f>SZ1+1</f>
+        <f t="shared" si="8"/>
         <v>518</v>
       </c>
       <c r="TB1" s="12">
-        <f>TA1+1</f>
+        <f t="shared" si="8"/>
         <v>519</v>
       </c>
       <c r="TC1" s="12">
-        <f>TB1+1</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="TD1" s="12">
-        <f>TC1+1</f>
+        <f t="shared" si="8"/>
         <v>521</v>
       </c>
       <c r="TE1" s="12">
-        <f>TD1+1</f>
+        <f t="shared" si="8"/>
         <v>522</v>
       </c>
       <c r="TF1" s="12">
-        <f>TE1+1</f>
+        <f t="shared" si="8"/>
         <v>523</v>
       </c>
       <c r="TG1" s="12">
-        <f>TF1+1</f>
+        <f t="shared" si="8"/>
         <v>524</v>
       </c>
       <c r="TH1" s="12">
-        <f>TG1+1</f>
+        <f t="shared" si="8"/>
         <v>525</v>
       </c>
       <c r="TI1" s="12">
-        <f>TH1+1</f>
+        <f t="shared" si="8"/>
         <v>526</v>
       </c>
       <c r="TJ1" s="12">
-        <f>TI1+1</f>
+        <f t="shared" si="8"/>
         <v>527</v>
       </c>
       <c r="TK1" s="12">
-        <f>TJ1+1</f>
+        <f t="shared" si="8"/>
         <v>528</v>
       </c>
       <c r="TL1" s="12">
-        <f>TK1+1</f>
+        <f t="shared" si="8"/>
         <v>529</v>
       </c>
       <c r="TM1" s="12">
-        <f>TL1+1</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
       <c r="TN1" s="12">
-        <f>TM1+1</f>
+        <f t="shared" si="8"/>
         <v>531</v>
       </c>
       <c r="TO1" s="12">
-        <f>TN1+1</f>
+        <f t="shared" si="8"/>
         <v>532</v>
       </c>
       <c r="TP1" s="12">
-        <f>TO1+1</f>
+        <f t="shared" si="8"/>
         <v>533</v>
       </c>
       <c r="TQ1" s="12">
-        <f>TP1+1</f>
+        <f t="shared" si="8"/>
         <v>534</v>
       </c>
       <c r="TR1" s="12">
-        <f>TQ1+1</f>
+        <f t="shared" si="8"/>
         <v>535</v>
       </c>
       <c r="TS1" s="12">
-        <f>TR1+1</f>
+        <f t="shared" si="8"/>
         <v>536</v>
       </c>
       <c r="TT1" s="12">
-        <f>TS1+1</f>
+        <f t="shared" si="8"/>
         <v>537</v>
       </c>
       <c r="TU1" s="12">
-        <f>TT1+1</f>
+        <f t="shared" si="8"/>
         <v>538</v>
       </c>
       <c r="TV1" s="12">
-        <f>TU1+1</f>
+        <f t="shared" si="8"/>
         <v>539</v>
       </c>
       <c r="TW1" s="12">
-        <f>TV1+1</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
       <c r="TX1" s="12">
-        <f>TW1+1</f>
+        <f t="shared" si="8"/>
         <v>541</v>
       </c>
       <c r="TY1" s="12">
-        <f>TX1+1</f>
+        <f t="shared" si="8"/>
         <v>542</v>
       </c>
       <c r="TZ1" s="12">
-        <f>TY1+1</f>
+        <f t="shared" si="8"/>
         <v>543</v>
       </c>
       <c r="UA1" s="12">
-        <f>TZ1+1</f>
+        <f t="shared" si="8"/>
         <v>544</v>
       </c>
       <c r="UB1" s="12">
-        <f>UA1+1</f>
+        <f t="shared" si="8"/>
         <v>545</v>
       </c>
       <c r="UC1" s="12">
-        <f>UB1+1</f>
+        <f t="shared" si="8"/>
         <v>546</v>
       </c>
       <c r="UD1" s="12">
-        <f>UC1+1</f>
+        <f t="shared" si="8"/>
         <v>547</v>
       </c>
       <c r="UE1" s="12">
-        <f>UD1+1</f>
+        <f t="shared" si="8"/>
         <v>548</v>
       </c>
       <c r="UF1" s="12">
-        <f>UE1+1</f>
+        <f t="shared" si="8"/>
         <v>549</v>
       </c>
       <c r="UG1" s="12">
-        <f>UF1+1</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
       <c r="UH1" s="12">
-        <f>UG1+1</f>
+        <f t="shared" si="8"/>
         <v>551</v>
       </c>
       <c r="UI1" s="12">
-        <f>UH1+1</f>
+        <f t="shared" si="8"/>
         <v>552</v>
       </c>
       <c r="UJ1" s="12">
-        <f>UI1+1</f>
+        <f t="shared" si="8"/>
         <v>553</v>
       </c>
       <c r="UK1" s="12">
-        <f>UJ1+1</f>
+        <f t="shared" si="8"/>
         <v>554</v>
       </c>
       <c r="UL1" s="12">
-        <f>UK1+1</f>
+        <f t="shared" si="8"/>
         <v>555</v>
       </c>
       <c r="UM1" s="12">
-        <f>UL1+1</f>
+        <f t="shared" si="8"/>
         <v>556</v>
       </c>
       <c r="UN1" s="12">
-        <f>UM1+1</f>
+        <f t="shared" si="8"/>
         <v>557</v>
       </c>
       <c r="UO1" s="12">
-        <f>UN1+1</f>
+        <f t="shared" si="8"/>
         <v>558</v>
       </c>
       <c r="UP1" s="12">
-        <f>UO1+1</f>
+        <f t="shared" si="8"/>
         <v>559</v>
       </c>
       <c r="UQ1" s="12">
-        <f>UP1+1</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
       <c r="UR1" s="12">
-        <f>UQ1+1</f>
+        <f t="shared" si="8"/>
         <v>561</v>
       </c>
       <c r="US1" s="12">
-        <f>UR1+1</f>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="UT1" s="12">
-        <f>US1+1</f>
+        <f t="shared" si="8"/>
         <v>563</v>
       </c>
       <c r="UU1" s="12">
-        <f>UT1+1</f>
+        <f t="shared" si="8"/>
         <v>564</v>
       </c>
       <c r="UV1" s="12">
-        <f>UU1+1</f>
+        <f t="shared" si="8"/>
         <v>565</v>
       </c>
       <c r="UW1" s="12">
-        <f>UV1+1</f>
+        <f t="shared" si="8"/>
         <v>566</v>
       </c>
       <c r="UX1" s="12">
-        <f>UW1+1</f>
+        <f t="shared" si="8"/>
         <v>567</v>
       </c>
       <c r="UY1" s="12">
-        <f>UX1+1</f>
+        <f t="shared" si="8"/>
         <v>568</v>
       </c>
       <c r="UZ1" s="12">
-        <f>UY1+1</f>
+        <f t="shared" si="8"/>
         <v>569</v>
       </c>
       <c r="VA1" s="12">
-        <f>UZ1+1</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
       <c r="VB1" s="12">
-        <f>VA1+1</f>
+        <f t="shared" si="8"/>
         <v>571</v>
       </c>
       <c r="VC1" s="12">
-        <f>VB1+1</f>
+        <f t="shared" si="8"/>
         <v>572</v>
       </c>
       <c r="VD1" s="12">
-        <f>VC1+1</f>
+        <f t="shared" si="8"/>
         <v>573</v>
       </c>
       <c r="VE1" s="12">
-        <f>VD1+1</f>
+        <f t="shared" si="8"/>
         <v>574</v>
       </c>
       <c r="VF1" s="12">
-        <f>VE1+1</f>
+        <f t="shared" si="8"/>
         <v>575</v>
       </c>
       <c r="VG1" s="12">
-        <f>VF1+1</f>
+        <f t="shared" si="8"/>
         <v>576</v>
       </c>
       <c r="VH1" s="12">
-        <f>VG1+1</f>
+        <f t="shared" si="8"/>
         <v>577</v>
       </c>
       <c r="VI1" s="12">
-        <f>VH1+1</f>
+        <f t="shared" ref="VI1:WE1" si="9">VH1+1</f>
         <v>578</v>
       </c>
       <c r="VJ1" s="12">
-        <f>VI1+1</f>
+        <f t="shared" si="9"/>
         <v>579</v>
       </c>
       <c r="VK1" s="12">
-        <f>VJ1+1</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
       <c r="VL1" s="12">
-        <f>VK1+1</f>
+        <f t="shared" si="9"/>
         <v>581</v>
       </c>
       <c r="VM1" s="12">
-        <f>VL1+1</f>
+        <f t="shared" si="9"/>
         <v>582</v>
       </c>
       <c r="VN1" s="12">
-        <f>VM1+1</f>
+        <f t="shared" si="9"/>
         <v>583</v>
       </c>
       <c r="VO1" s="12">
-        <f>VN1+1</f>
+        <f t="shared" si="9"/>
         <v>584</v>
       </c>
       <c r="VP1" s="12">
-        <f>VO1+1</f>
+        <f t="shared" si="9"/>
         <v>585</v>
       </c>
       <c r="VQ1" s="12">
-        <f>VP1+1</f>
+        <f t="shared" si="9"/>
         <v>586</v>
       </c>
       <c r="VR1" s="12">
-        <f>VQ1+1</f>
+        <f t="shared" si="9"/>
         <v>587</v>
       </c>
       <c r="VS1" s="12">
-        <f>VR1+1</f>
+        <f t="shared" si="9"/>
         <v>588</v>
       </c>
       <c r="VT1" s="12">
-        <f>VS1+1</f>
+        <f t="shared" si="9"/>
         <v>589</v>
       </c>
       <c r="VU1" s="12">
-        <f>VT1+1</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
       <c r="VV1" s="12">
-        <f>VU1+1</f>
+        <f t="shared" si="9"/>
         <v>591</v>
       </c>
       <c r="VW1" s="12">
-        <f>VV1+1</f>
+        <f t="shared" si="9"/>
         <v>592</v>
       </c>
       <c r="VX1" s="12">
-        <f>VW1+1</f>
+        <f t="shared" si="9"/>
         <v>593</v>
       </c>
       <c r="VY1" s="12">
-        <f>VX1+1</f>
+        <f t="shared" si="9"/>
         <v>594</v>
       </c>
       <c r="VZ1" s="12">
-        <f>VY1+1</f>
+        <f t="shared" si="9"/>
         <v>595</v>
       </c>
       <c r="WA1" s="12">
-        <f>VZ1+1</f>
+        <f t="shared" si="9"/>
         <v>596</v>
       </c>
       <c r="WB1" s="12">
-        <f>WA1+1</f>
+        <f t="shared" si="9"/>
         <v>597</v>
       </c>
       <c r="WC1" s="12">
-        <f>WB1+1</f>
+        <f t="shared" si="9"/>
         <v>598</v>
       </c>
       <c r="WD1" s="12">
-        <f>WC1+1</f>
+        <f t="shared" si="9"/>
         <v>599</v>
       </c>
       <c r="WE1" s="4">
-        <f>WD1+1</f>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
     </row>
@@ -11487,4 +12867,915 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1163129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>104594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>92450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>103952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>97028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>100392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>98634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>100077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>103881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>104672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>91622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>102598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>98072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>99559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>101892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>101706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>96545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>100032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>102386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>103104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>97050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>98511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>100514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>98935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>99930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>107987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>93141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>101373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>97735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>104672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>100807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>96177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>98680</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>100312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>100986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>100140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>99704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>99898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>101577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>100195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>99536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>98620</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>120648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>78994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>105855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>94228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>138882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>64769</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>100056</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>98317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>116793</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>81558</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>100035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>101470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>98668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>100029</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>100062</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>100877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>99236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>100104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>101469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>99361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>99306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>102531</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>99698</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>101445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>100466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>98267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>99260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>99076</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>104399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>95406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>104135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>96545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>99514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>100065</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>100040</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>100858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>99253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>100082</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>100325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>110557</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>90609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>102163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>99389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>97958</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>99423</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>103071</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>97046</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>100069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>104391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>99800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>96942</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>99835</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>99308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>100573</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>99554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>104606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>109743</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>92499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>93405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>102391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>97729</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>100129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>100680</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>101044</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>98373</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>101987</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>98157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>101673</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>98459</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>100054</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>100028</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>100513</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>99628</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>102334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>99197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>99820</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>99332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>99917</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>99808</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>101534</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>99153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>99454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>102273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>100622</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>97261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>100606</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>100664</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>101348</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>97629</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>102268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>97872</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>103042</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>97069</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>100132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>100352</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>100596</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>104428</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>96167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>100556</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>99826</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>99283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>99761</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>99709</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>102010</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>98968</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>98974</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>100070</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>103314</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>96818</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>100998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>101081</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>98097</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>100071</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>100035</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>100087</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>100187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>99920</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>100061</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>100856</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>99263</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>105745</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>104430</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>90053</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>102045</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>99346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>101520</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>102561</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>96329</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>100897</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>99037</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>98695</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>101228</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>98911</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>103998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>97150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>99008</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>100067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>